--- a/excel/finished/8高炉/工艺卡录入.xlsx
+++ b/excel/finished/8高炉/工艺卡录入.xlsx
@@ -112,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -316,11 +316,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -333,17 +357,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -362,6 +379,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -386,40 +445,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -703,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:I26"/>
+  <dimension ref="B4:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -715,75 +753,80 @@
     <col min="2" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
+    <col min="7" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="13" max="13" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-    </row>
-    <row r="5" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="30" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="33" t="str">
+      <c r="C6" s="22" t="str">
         <f>IF(_tag_day_all!A1="","",_tag_day_all!A1)</f>
         <v/>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="34" t="str">
+      <c r="F6" s="23" t="str">
         <f>IF(_tag_day_all!B1="","",_tag_day_all!B1)</f>
         <v/>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="23"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="str">
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="str">
         <f>IF(_tag_day_all!A2="","",_tag_day_all!A2)</f>
         <v/>
       </c>
@@ -807,12 +850,16 @@
         <f>IF(_tag_day_all!F2="","",_tag_day_all!F2)</f>
         <v/>
       </c>
-      <c r="H9" s="9" t="str">
+      <c r="H9" s="15" t="str">
         <f>IF(_tag_day_all!G2="","",_tag_day_all!G2)</f>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="15" t="str">
+        <f>IF(_tag_day_all!H2="","",_tag_day_all!H2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="str">
         <f>IF(_tag_day_all!A3="","",_tag_day_all!A3)</f>
         <v/>
@@ -837,12 +884,16 @@
         <f>IF(_tag_day_all!F3="","",_tag_day_all!F3)</f>
         <v/>
       </c>
-      <c r="H10" s="6" t="str">
+      <c r="H10" s="14" t="str">
         <f>IF(_tag_day_all!G3="","",_tag_day_all!G3)</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="14" t="str">
+        <f>IF(_tag_day_all!H3="","",_tag_day_all!H3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="str">
         <f>IF(_tag_day_all!A4="","",_tag_day_all!A4)</f>
         <v/>
@@ -867,49 +918,56 @@
         <f>IF(_tag_day_all!F4="","",_tag_day_all!F4)</f>
         <v/>
       </c>
-      <c r="H11" s="6" t="str">
+      <c r="H11" s="14" t="str">
         <f>IF(_tag_day_all!G4="","",_tag_day_all!G4)</f>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="I11" s="14" t="str">
+        <f>IF(_tag_day_all!H4="","",_tag_day_all!H4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="11" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="str">
         <f>IF(_tag_day_all!A5="","",_tag_day_all!A5)</f>
         <v/>
@@ -922,15 +980,16 @@
         <f>IF(_tag_day_all!C5="","",_tag_day_all!C5)</f>
         <v/>
       </c>
-      <c r="E15" s="17" t="str">
+      <c r="E15" s="28" t="str">
         <f>IF(_tag_day_all!E5="","",_tag_day_all!E5)</f>
         <v/>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="str">
         <f>IF(_tag_day_all!A6="","",_tag_day_all!A6)</f>
         <v/>
@@ -943,15 +1002,16 @@
         <f>IF(_tag_day_all!C6="","",_tag_day_all!C6)</f>
         <v/>
       </c>
-      <c r="E16" s="17" t="str">
+      <c r="E16" s="28" t="str">
         <f>IF(_tag_day_all!E6="","",_tag_day_all!E6)</f>
         <v/>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="str">
         <f>IF(_tag_day_all!A7="","",_tag_day_all!A7)</f>
         <v/>
@@ -964,15 +1024,16 @@
         <f>IF(_tag_day_all!C7="","",_tag_day_all!C7)</f>
         <v/>
       </c>
-      <c r="E17" s="17" t="str">
+      <c r="E17" s="28" t="str">
         <f>IF(_tag_day_all!E7="","",_tag_day_all!E7)</f>
         <v/>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="str">
         <f>IF(_tag_day_all!A8="","",_tag_day_all!A8)</f>
         <v/>
@@ -985,15 +1046,16 @@
         <f>IF(_tag_day_all!C8="","",_tag_day_all!C8)</f>
         <v/>
       </c>
-      <c r="E18" s="17" t="str">
+      <c r="E18" s="28" t="str">
         <f>IF(_tag_day_all!E8="","",_tag_day_all!E8)</f>
         <v/>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30"/>
+    </row>
+    <row r="19" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="str">
         <f>IF(_tag_day_all!A9="","",_tag_day_all!A9)</f>
         <v/>
@@ -1006,15 +1068,16 @@
         <f>IF(_tag_day_all!C9="","",_tag_day_all!C9)</f>
         <v/>
       </c>
-      <c r="E19" s="17" t="str">
+      <c r="E19" s="28" t="str">
         <f>IF(_tag_day_all!E9="","",_tag_day_all!E9)</f>
         <v/>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="str">
         <f>IF(_tag_day_all!A10="","",_tag_day_all!A10)</f>
         <v/>
@@ -1027,15 +1090,16 @@
         <f>IF(_tag_day_all!C10="","",_tag_day_all!C10)</f>
         <v/>
       </c>
-      <c r="E20" s="17" t="str">
+      <c r="E20" s="28" t="str">
         <f>IF(_tag_day_all!E10="","",_tag_day_all!E10)</f>
         <v/>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="str">
         <f>IF(_tag_day_all!A11="","",_tag_day_all!A11)</f>
         <v/>
@@ -1048,15 +1112,16 @@
         <f>IF(_tag_day_all!C11="","",_tag_day_all!C11)</f>
         <v/>
       </c>
-      <c r="E21" s="17" t="str">
+      <c r="E21" s="28" t="str">
         <f>IF(_tag_day_all!E11="","",_tag_day_all!E11)</f>
         <v/>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="str">
         <f>IF(_tag_day_all!A12="","",_tag_day_all!A12)</f>
         <v/>
@@ -1069,15 +1134,16 @@
         <f>IF(_tag_day_all!C12="","",_tag_day_all!C12)</f>
         <v/>
       </c>
-      <c r="E22" s="17" t="str">
+      <c r="E22" s="28" t="str">
         <f>IF(_tag_day_all!E12="","",_tag_day_all!E12)</f>
         <v/>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="str">
         <f>IF(_tag_day_all!A13="","",_tag_day_all!A13)</f>
         <v/>
@@ -1090,84 +1156,88 @@
         <f>IF(_tag_day_all!C13="","",_tag_day_all!C13)</f>
         <v/>
       </c>
-      <c r="E23" s="17" t="str">
+      <c r="E23" s="28" t="str">
         <f>IF(_tag_day_all!E13="","",_tag_day_all!E13)</f>
         <v/>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="20" t="str">
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="31" t="str">
         <f>IF(_tag_day_all!C1="","",_tag_day_all!C1)</f>
         <v/>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="13" t="s">
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="33"/>
+    </row>
+    <row r="26" spans="2:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="14" t="str">
+      <c r="C26" s="11" t="str">
         <f>IF(_tag_day_all!D1="","",_tag_day_all!D1)</f>
         <v/>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="14" t="str">
+      <c r="E26" s="11" t="str">
         <f>IF(_tag_day_all!E1="","",_tag_day_all!E1)</f>
         <v/>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="23" t="str">
+      <c r="G26" s="34" t="str">
         <f>IF(_tag_day_all!F1="","",_tag_day_all!F1)</f>
         <v/>
       </c>
-      <c r="H26" s="24"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="B7:I7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
